--- a/Inserts/stafs_insert.xlsx
+++ b/Inserts/stafs_insert.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medvedskijae\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medvedskijae\Desktop\Mbave\Marathon\Inserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4343E9-191D-41C8-9462-CEC793C8FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FDAC3-BA24-413B-9199-E78F4DE25C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28BBBCE0-1B84-4EC1-91F5-A199A29ED7EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28BBBCE0-1B84-4EC1-91F5-A199A29ED7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="stafs_insert" sheetId="1" r:id="rId1"/>
-    <sheet name="Position" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="751">
   <si>
     <t>Staff ID</t>
   </si>
@@ -55,9 +53,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Administrative Clerk</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -67,30 +62,15 @@
     <t>M</t>
   </si>
   <si>
-    <t>HR Clerk</t>
-  </si>
-  <si>
     <t>k_sweely@yahoo.com</t>
   </si>
   <si>
-    <t>Workforce Support</t>
-  </si>
-  <si>
     <t>elsie.estell@rrg.net</t>
   </si>
   <si>
-    <t>Social Media Assistant</t>
-  </si>
-  <si>
     <t>tyrell_rosenberg@hotmail.com</t>
   </si>
   <si>
-    <t>Helpdesk Advisor</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>madelyn_hoover@@hotmail.com</t>
   </si>
   <si>
@@ -106,39 +86,24 @@
     <t>mohammad_richey@jcl.net</t>
   </si>
   <si>
-    <t>Sponsorship Coordinator</t>
-  </si>
-  <si>
     <t>7w_duncan@hotmail.com</t>
   </si>
   <si>
-    <t>Administrative Manager</t>
-  </si>
-  <si>
     <t>6v_seaborn@gmail.com</t>
   </si>
   <si>
     <t>l_higgins@msv.org</t>
   </si>
   <si>
-    <t>Finance Clerk</t>
-  </si>
-  <si>
     <t>don_russ@jcl.net</t>
   </si>
   <si>
-    <t>Assistant</t>
-  </si>
-  <si>
     <t>t_staley@nnl.com</t>
   </si>
   <si>
     <t>wilford.rivera@gmail.com</t>
   </si>
   <si>
-    <t>Marketing Assistant</t>
-  </si>
-  <si>
     <t>l_beyer@rnl.com</t>
   </si>
   <si>
@@ -169,9 +134,6 @@
     <t>g_granger@msv.org</t>
   </si>
   <si>
-    <t>Social Media Coordinator</t>
-  </si>
-  <si>
     <t>7k_mercado@@hotmail.com</t>
   </si>
   <si>
@@ -295,18 +257,12 @@
     <t>j_mcclelland@yahoo.com</t>
   </si>
   <si>
-    <t>Finance Manager</t>
-  </si>
-  <si>
     <t>115grant.dowdy@hotmail.com</t>
   </si>
   <si>
     <t>a_owen@hotmail.com</t>
   </si>
   <si>
-    <t>Volunteer Coordinator</t>
-  </si>
-  <si>
     <t>9e_craig@gmail.com</t>
   </si>
   <si>
@@ -397,9 +353,6 @@
     <t>kelley.daniel@gmail.com</t>
   </si>
   <si>
-    <t>IT Manager</t>
-  </si>
-  <si>
     <t>130m_stem@ccf.org</t>
   </si>
   <si>
@@ -454,9 +407,6 @@
     <t>stella_hieber@hotmail.com</t>
   </si>
   <si>
-    <t>CEO</t>
-  </si>
-  <si>
     <t>7roseanne_villanueva@yahoo.com</t>
   </si>
   <si>
@@ -469,9 +419,6 @@
     <t>c_haley@yahoo.com</t>
   </si>
   <si>
-    <t>Workforce Manager</t>
-  </si>
-  <si>
     <t>b_platt@hotmail.com</t>
   </si>
   <si>
@@ -484,9 +431,6 @@
     <t>denny_morales@hotmail.com</t>
   </si>
   <si>
-    <t>Operations Manager</t>
-  </si>
-  <si>
     <t>110d_branch@live.com</t>
   </si>
   <si>
@@ -556,9 +500,6 @@
     <t>ignacio_cokley@jcl.net</t>
   </si>
   <si>
-    <t>HR Manager</t>
-  </si>
-  <si>
     <t>7n_meinerding@@ccf.org</t>
   </si>
   <si>
@@ -2345,60 +2286,6 @@
   </si>
   <si>
     <t>ID Position</t>
-  </si>
-  <si>
-    <t>Provides support to the Finan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Works on the helpdesk </t>
-  </si>
-  <si>
-    <t>Provides administrative support</t>
-  </si>
-  <si>
-    <t>Provides support to the Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Provides support to the Socia</t>
-  </si>
-  <si>
-    <t>Works  in any number of areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Provides support to the Workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chief Executive Officer</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coordinates  recruitment</t>
-  </si>
-  <si>
-    <t>Identifies, develops and main</t>
-  </si>
-  <si>
-    <t>Manages content across social</t>
-  </si>
-  <si>
-    <t>Oversees all logistical aspects</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oversees the administrative flow</t>
-  </si>
-  <si>
-    <t>Oversees the plannin</t>
-  </si>
-  <si>
-    <t>Manages the recruitment, reted</t>
-  </si>
-  <si>
-    <t>esponsible for the financial</t>
-  </si>
-  <si>
-    <t>Responsible for coordinating</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2293,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2905,7 +2792,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3283,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80471E29-BC66-43E6-A028-D062D756325E}">
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -3303,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3315,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -3329,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D2" s="1">
         <v>22499</v>
@@ -3344,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -3355,25 +3242,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="C3" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="D3" s="1">
         <v>29579</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -3381,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="C4" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="D4" s="1">
         <v>27217</v>
@@ -3396,10 +3283,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -3407,25 +3294,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D5" s="1">
         <v>23956</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -3433,10 +3320,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D6" s="1">
         <v>22984</v>
@@ -3448,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -3459,25 +3346,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D7" s="1">
         <v>24561</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3485,25 +3372,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D8" s="1">
         <v>32695</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3511,25 +3398,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D9" s="1">
         <v>20537</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3537,25 +3424,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="C10" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D10" s="1">
         <v>34881</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="X10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3563,10 +3450,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1">
         <v>25131</v>
@@ -3578,10 +3465,10 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="X11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3589,10 +3476,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D12" s="1">
         <v>34255</v>
@@ -3604,10 +3491,10 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="X12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3615,10 +3502,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="C13" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="D13" s="1">
         <v>35610</v>
@@ -3630,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3641,25 +3528,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D14" s="1">
         <v>26219</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3667,25 +3554,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D15" s="1">
         <v>33647</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="X15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3693,25 +3580,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D16" s="1">
         <v>28754</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="X16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3719,25 +3606,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="C17" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="D17" s="1">
         <v>33146</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3745,10 +3632,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="D18" s="1">
         <v>30495</v>
@@ -3760,10 +3647,10 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="X18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3771,10 +3658,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D19" s="1">
         <v>23333</v>
@@ -3786,10 +3673,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="X19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3797,10 +3684,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="D20" s="1">
         <v>18918</v>
@@ -3812,10 +3699,10 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -3823,25 +3710,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D21" s="1">
         <v>30427</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -3849,10 +3736,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="D22" s="1">
         <v>28992</v>
@@ -3864,10 +3751,10 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="X22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -3875,10 +3762,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="C23" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="D23" s="1">
         <v>26948</v>
@@ -3890,10 +3777,10 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="X23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -3901,10 +3788,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D24" s="1">
         <v>27291</v>
@@ -3916,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="X24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -3927,25 +3814,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D25" s="1">
         <v>31036</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="X25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -3953,10 +3840,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D26" s="1">
         <v>30069</v>
@@ -3968,10 +3855,10 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -3979,25 +3866,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C27" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="D27" s="1">
         <v>19324</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4005,25 +3892,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D28" s="1">
         <v>19590</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -4031,10 +3918,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D29" s="1">
         <v>31337</v>
@@ -4046,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="X29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -4057,10 +3944,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D30" s="1">
         <v>29074</v>
@@ -4072,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="X30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -4083,25 +3970,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="C31" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="D31" s="1">
         <v>21532</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -4109,25 +3996,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D32" s="1">
         <v>32210</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -4135,10 +4022,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D33" s="1">
         <v>33245</v>
@@ -4150,10 +4037,10 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="X33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -4161,25 +4048,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D34" s="1">
         <v>31581</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -4187,25 +4074,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D35" s="1">
         <v>22196</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -4213,10 +4100,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C36" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="D36" s="1">
         <v>23434</v>
@@ -4228,10 +4115,10 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -4239,25 +4126,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="C37" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="D37" s="1">
         <v>19530</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="X37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -4265,10 +4152,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D38" s="1">
         <v>23812</v>
@@ -4280,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="X38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -4291,10 +4178,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C39" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D39" s="1">
         <v>25740</v>
@@ -4306,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -4317,10 +4204,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C40" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D40" s="1">
         <v>35936</v>
@@ -4332,10 +4219,10 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="X40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -4343,10 +4230,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D41" s="1">
         <v>24096</v>
@@ -4358,10 +4245,10 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="X41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4369,10 +4256,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D42" s="1">
         <v>25491</v>
@@ -4384,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="X42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -4395,25 +4282,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1">
         <v>31423</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="X43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -4421,25 +4308,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D44" s="1">
         <v>32494</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="X44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -4447,25 +4334,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="C45" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="D45" s="1">
         <v>24521</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="X45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -4473,10 +4360,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="D46" s="1">
         <v>32820</v>
@@ -4488,10 +4375,10 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="X46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -4499,10 +4386,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="C47" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D47" s="1">
         <v>19263</v>
@@ -4514,10 +4401,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="X47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -4525,10 +4412,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="C48" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="D48" s="1">
         <v>21325</v>
@@ -4540,10 +4427,10 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="X48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4551,25 +4438,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D49" s="1">
         <v>24784</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="X49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -4577,25 +4464,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="D50" s="1">
         <v>19145</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="X50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -4603,10 +4490,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C51" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="D51" s="1">
         <v>24685</v>
@@ -4618,10 +4505,10 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="X51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4629,25 +4516,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="C52" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="D52" s="1">
         <v>34961</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="X52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4655,10 +4542,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="C53" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="D53" s="1">
         <v>19383</v>
@@ -4670,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="X53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -4681,10 +4568,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="D54" s="1">
         <v>23653</v>
@@ -4696,10 +4583,10 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="X54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4707,10 +4594,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D55" s="1">
         <v>24021</v>
@@ -4722,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="X55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -4733,10 +4620,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D56" s="1">
         <v>18716</v>
@@ -4748,10 +4635,10 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="X56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -4759,25 +4646,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C57" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="D57" s="1">
         <v>29014</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="X57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -4785,25 +4672,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="C58" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D58" s="1">
         <v>22962</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="X58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4811,25 +4698,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="C59" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="D59" s="1">
         <v>35306</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="X59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -4837,10 +4724,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="D60" s="1">
         <v>30733</v>
@@ -4852,10 +4739,10 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="X60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4863,25 +4750,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C61" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D61" s="1">
         <v>24948</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="X61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -4889,25 +4776,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D62" s="1">
         <v>23228</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="X62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -4915,10 +4802,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="C63" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D63" s="1">
         <v>26914</v>
@@ -4930,10 +4817,10 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="X63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
@@ -4941,25 +4828,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="C64" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="D64" s="1">
         <v>28610</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="X64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4967,25 +4854,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D65" s="1">
         <v>28067</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="X65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -4993,25 +4880,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D66" s="1">
         <v>20455</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="X66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -5019,25 +4906,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="C67" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="D67" s="1">
         <v>24546</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="X67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -5045,25 +4932,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C68" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D68" s="1">
         <v>20438</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68">
         <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="X68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -5071,10 +4958,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="C69" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D69" s="1">
         <v>26165</v>
@@ -5086,10 +4973,10 @@
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="X69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -5097,25 +4984,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="C70" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="D70" s="1">
         <v>30512</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="X70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -5123,25 +5010,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D71" s="1">
         <v>30656</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71">
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5149,25 +5036,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D72" s="1">
         <v>23832</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="X72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5175,25 +5062,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D73" s="1">
         <v>23474</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5201,25 +5088,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D74" s="1">
         <v>28351</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="X74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5227,25 +5114,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C75" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D75" s="1">
         <v>34904</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="X75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -5253,25 +5140,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="C76" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="D76" s="1">
         <v>34697</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76">
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="X76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
@@ -5279,10 +5166,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="C77" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="D77" s="1">
         <v>34113</v>
@@ -5294,10 +5181,10 @@
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="X77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -5305,10 +5192,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C78" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="D78" s="1">
         <v>33484</v>
@@ -5320,10 +5207,10 @@
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="X78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
@@ -5331,10 +5218,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D79" s="1">
         <v>28850</v>
@@ -5346,10 +5233,10 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="X79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -5357,25 +5244,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C80" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D80" s="1">
         <v>27617</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="X80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
@@ -5383,10 +5270,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C81" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D81" s="1">
         <v>35224</v>
@@ -5398,10 +5285,10 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="X81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -5409,25 +5296,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="C82" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="D82" s="1">
         <v>23917</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -5435,25 +5322,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C83" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="D83" s="1">
         <v>21430</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83">
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="X83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -5461,10 +5348,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="C84" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="D84" s="1">
         <v>31280</v>
@@ -5476,10 +5363,10 @@
         <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="X84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -5487,25 +5374,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D85" s="1">
         <v>34272</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85">
         <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="X85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -5513,10 +5400,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="C86" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="D86" s="1">
         <v>20055</v>
@@ -5528,10 +5415,10 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="X86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -5539,25 +5426,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="C87" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="D87" s="1">
         <v>24608</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="X87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -5565,25 +5452,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="C88" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="D88" s="1">
         <v>27677</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88">
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="X88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -5591,10 +5478,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D89" s="1">
         <v>32086</v>
@@ -5606,10 +5493,10 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="X89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -5617,10 +5504,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C90" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D90" s="1">
         <v>26463</v>
@@ -5632,10 +5519,10 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -5643,10 +5530,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C91" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D91" s="1">
         <v>28247</v>
@@ -5658,10 +5545,10 @@
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="X91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -5669,10 +5556,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C92" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D92" s="1">
         <v>19604</v>
@@ -5684,10 +5571,10 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="X92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -5695,25 +5582,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="C93" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="D93" s="1">
         <v>31947</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="X93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -5721,10 +5608,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="C94" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="D94" s="1">
         <v>27458</v>
@@ -5736,10 +5623,10 @@
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="X94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -5747,25 +5634,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="C95" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="D95" s="1">
         <v>24866</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="X95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -5773,25 +5660,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D96" s="1">
         <v>21141</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="X96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -5799,10 +5686,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C97" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="D97" s="1">
         <v>20840</v>
@@ -5814,10 +5701,10 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="X97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
@@ -5825,10 +5712,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="C98" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="D98" s="1">
         <v>31203</v>
@@ -5840,10 +5727,10 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="X98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
@@ -5851,25 +5738,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="C99" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="D99" s="1">
         <v>24277</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99">
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="X99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -5877,10 +5764,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C100" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="D100" s="1">
         <v>24362</v>
@@ -5892,10 +5779,10 @@
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="X100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
@@ -5903,25 +5790,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="C101" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="D101" s="1">
         <v>30551</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="X101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
@@ -5929,10 +5816,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D102" s="1">
         <v>29968</v>
@@ -5944,10 +5831,10 @@
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="X102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
@@ -5955,10 +5842,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="C103" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="D103" s="1">
         <v>29440</v>
@@ -5970,10 +5857,10 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="X103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -5981,10 +5868,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D104" s="1">
         <v>21161</v>
@@ -5996,10 +5883,10 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="X104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
@@ -6007,10 +5894,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D105" s="1">
         <v>30413</v>
@@ -6022,10 +5909,10 @@
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="X105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -6033,25 +5920,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="C106" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D106" s="1">
         <v>25718</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106">
         <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="X106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -6059,10 +5946,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="C107" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="D107" s="1">
         <v>23409</v>
@@ -6074,10 +5961,10 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
@@ -6085,10 +5972,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C108" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D108" s="1">
         <v>21975</v>
@@ -6100,10 +5987,10 @@
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="X108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
@@ -6111,25 +5998,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C109" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D109" s="1">
         <v>20217</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109">
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="X109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -6137,25 +6024,25 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="C110" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D110" s="1">
         <v>26324</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F110">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="X110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
@@ -6163,25 +6050,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C111" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="D111" s="1">
         <v>32190</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="X111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
@@ -6189,25 +6076,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C112" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="D112" s="1">
         <v>30758</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="X112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
@@ -6215,25 +6102,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="C113" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="D113" s="1">
         <v>22221</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113">
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="X113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -6241,25 +6128,25 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C114" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="D114" s="1">
         <v>29823</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="X114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -6267,25 +6154,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="C115" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D115" s="1">
         <v>18841</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="X115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -6293,10 +6180,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C116" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="D116" s="1">
         <v>31419</v>
@@ -6308,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="X116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -6319,10 +6206,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="C117" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="D117" s="1">
         <v>26503</v>
@@ -6334,10 +6221,10 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="X117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -6345,10 +6232,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="C118" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D118" s="1">
         <v>20254</v>
@@ -6360,10 +6247,10 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="X118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
@@ -6371,25 +6258,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D119" s="1">
         <v>28816</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119">
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="X119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -6397,10 +6284,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="C120" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="D120" s="1">
         <v>33424</v>
@@ -6412,10 +6299,10 @@
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="X120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -6423,10 +6310,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="C121" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D121" s="1">
         <v>28890</v>
@@ -6438,10 +6325,10 @@
         <v>5</v>
       </c>
       <c r="G121" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="X121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -6449,25 +6336,25 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="D122" s="1">
         <v>22704</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122">
         <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="X122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -6475,10 +6362,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C123" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D123" s="1">
         <v>24646</v>
@@ -6490,10 +6377,10 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="X123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -6501,10 +6388,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="C124" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="D124" s="1">
         <v>23208</v>
@@ -6516,10 +6403,10 @@
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="X124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -6527,25 +6414,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C125" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="D125" s="1">
         <v>34779</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125">
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="X125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
@@ -6553,25 +6440,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="C126" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="D126" s="1">
         <v>30047</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126">
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="X126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
@@ -6579,25 +6466,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="C127" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="D127" s="1">
         <v>20619</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127">
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="X127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
@@ -6605,10 +6492,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="D128" s="1">
         <v>23126</v>
@@ -6620,10 +6507,10 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="X128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
@@ -6631,25 +6518,25 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C129" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D129" s="1">
         <v>18694</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129">
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="X129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
@@ -6657,25 +6544,25 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="D130" s="1">
         <v>27072</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130">
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
@@ -6683,25 +6570,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D131" s="1">
         <v>25633</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F131">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="X131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
@@ -6709,25 +6596,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D132" s="1">
         <v>21226</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132">
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="X132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -6735,10 +6622,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C133" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="D133" s="1">
         <v>25556</v>
@@ -6750,10 +6637,10 @@
         <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="X133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
@@ -6761,10 +6648,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C134" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D134" s="1">
         <v>30206</v>
@@ -6776,10 +6663,10 @@
         <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
@@ -6787,10 +6674,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C135" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="D135" s="1">
         <v>31765</v>
@@ -6802,10 +6689,10 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="X135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
@@ -6813,10 +6700,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="C136" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="D136" s="1">
         <v>21206</v>
@@ -6828,10 +6715,10 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="X136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
@@ -6839,10 +6726,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C137" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D137" s="1">
         <v>31726</v>
@@ -6854,10 +6741,10 @@
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="X137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
@@ -6865,25 +6752,25 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D138" s="1">
         <v>21425</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F138">
         <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="X138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
@@ -6891,10 +6778,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="C139" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="D139" s="1">
         <v>23103</v>
@@ -6906,10 +6793,10 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="X139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
@@ -6917,10 +6804,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C140" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D140" s="1">
         <v>27033</v>
@@ -6932,10 +6819,10 @@
         <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="X140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
@@ -6943,10 +6830,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C141" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="D141" s="1">
         <v>34170</v>
@@ -6958,10 +6845,10 @@
         <v>6</v>
       </c>
       <c r="G141" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="X141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
@@ -6969,25 +6856,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D142" s="1">
         <v>34152</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F142">
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="X142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
@@ -6995,25 +6882,25 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C143" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D143" s="1">
         <v>34396</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F143">
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="X143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
@@ -7021,10 +6908,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C144" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D144" s="1">
         <v>22882</v>
@@ -7036,10 +6923,10 @@
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="X144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
@@ -7047,25 +6934,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D145" s="1">
         <v>21064</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F145">
         <v>8</v>
       </c>
       <c r="G145" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
@@ -7073,10 +6960,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="C146" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="D146" s="1">
         <v>19851</v>
@@ -7088,10 +6975,10 @@
         <v>23</v>
       </c>
       <c r="G146" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="X146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
@@ -7099,25 +6986,25 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C147" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D147" s="1">
         <v>25921</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F147">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="X147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
@@ -7125,25 +7012,25 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C148" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="D148" s="1">
         <v>20112</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148">
         <v>6</v>
       </c>
       <c r="G148" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="X148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
@@ -7151,25 +7038,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C149" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="D149" s="1">
         <v>18496</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149">
         <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="X149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
@@ -7177,10 +7064,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="C150" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D150" s="1">
         <v>21668</v>
@@ -7192,10 +7079,10 @@
         <v>5</v>
       </c>
       <c r="G150" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="X150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
@@ -7203,25 +7090,25 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C151" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="D151" s="1">
         <v>25235</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="X151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
@@ -7229,25 +7116,25 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C152" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D152" s="1">
         <v>25615</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F152">
         <v>8</v>
       </c>
       <c r="G152" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="X152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
@@ -7255,10 +7142,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C153" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D153" s="1">
         <v>25249</v>
@@ -7270,10 +7157,10 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="X153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
@@ -7281,10 +7168,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C154" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="D154" s="1">
         <v>28856</v>
@@ -7296,10 +7183,10 @@
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="X154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
@@ -7307,25 +7194,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="C155" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D155" s="1">
         <v>20477</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F155">
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="X155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
@@ -7333,25 +7220,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="C156" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="D156" s="1">
         <v>35469</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F156">
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="X156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
@@ -7359,25 +7246,25 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="C157" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="D157" s="1">
         <v>23471</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157">
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="X157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
@@ -7385,25 +7272,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C158" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D158" s="1">
         <v>33240</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="X158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
@@ -7411,25 +7298,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C159" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D159" s="1">
         <v>21770</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F159">
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="X159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
@@ -7437,25 +7324,25 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C160" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="D160" s="1">
         <v>21082</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F160">
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="X160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
@@ -7463,10 +7350,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="C161" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="D161" s="1">
         <v>34453</v>
@@ -7478,10 +7365,10 @@
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="X161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
@@ -7489,10 +7376,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="C162" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="D162" s="1">
         <v>20457</v>
@@ -7504,10 +7391,10 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="X162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.25">
@@ -7515,10 +7402,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="C163" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="D163" s="1">
         <v>26485</v>
@@ -7530,10 +7417,10 @@
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="X163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
@@ -7541,10 +7428,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C164" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D164" s="1">
         <v>32108</v>
@@ -7556,10 +7443,10 @@
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="X164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
@@ -7567,25 +7454,25 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="C165" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="D165" s="1">
         <v>29341</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165">
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="X165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
@@ -7593,25 +7480,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C166" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D166" s="1">
         <v>35914</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F166">
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="X166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
@@ -7619,10 +7506,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="C167" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D167" s="1">
         <v>33565</v>
@@ -7634,10 +7521,10 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="X167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
@@ -7645,25 +7532,25 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="C168" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D168" s="1">
         <v>21890</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F168">
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="X168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
@@ -7671,25 +7558,25 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C169" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D169" s="1">
         <v>30288</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F169">
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="X169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
@@ -7697,10 +7584,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C170" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="D170" s="1">
         <v>32559</v>
@@ -7712,10 +7599,10 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="X170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.25">
@@ -7723,10 +7610,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="C171" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="D171" s="1">
         <v>29699</v>
@@ -7738,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="X171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
@@ -7749,10 +7636,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C172" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="D172" s="1">
         <v>30124</v>
@@ -7764,10 +7651,10 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="X172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
@@ -7775,25 +7662,25 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="C173" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="D173" s="1">
         <v>28612</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F173">
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="X173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
@@ -7801,10 +7688,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C174" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D174" s="1">
         <v>23549</v>
@@ -7816,10 +7703,10 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="X174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
@@ -7827,10 +7714,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C175" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="D175" s="1">
         <v>22618</v>
@@ -7842,10 +7729,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="X175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
@@ -7853,10 +7740,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C176" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="D176" s="1">
         <v>22887</v>
@@ -7868,10 +7755,10 @@
         <v>6</v>
       </c>
       <c r="G176" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="X176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
@@ -7879,10 +7766,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C177" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D177" s="1">
         <v>35202</v>
@@ -7894,10 +7781,10 @@
         <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="X177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
@@ -7905,10 +7792,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="C178" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="D178" s="1">
         <v>20353</v>
@@ -7920,10 +7807,10 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="X178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
@@ -7931,10 +7818,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="C179" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="D179" s="1">
         <v>33185</v>
@@ -7946,10 +7833,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="X179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
@@ -7957,10 +7844,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="C180" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D180" s="1">
         <v>20293</v>
@@ -7972,10 +7859,10 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="X180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
@@ -7983,10 +7870,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D181" s="1">
         <v>27801</v>
@@ -7998,10 +7885,10 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="X181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
@@ -8009,10 +7896,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="C182" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D182" s="1">
         <v>18536</v>
@@ -8024,10 +7911,10 @@
         <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="X182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
@@ -8035,10 +7922,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="C183" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="D183" s="1">
         <v>28144</v>
@@ -8050,10 +7937,10 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="X183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
@@ -8061,10 +7948,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="C184" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="D184" s="1">
         <v>31243</v>
@@ -8076,10 +7963,10 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="X184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
@@ -8087,25 +7974,25 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D185" s="1">
         <v>30753</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F185">
         <v>6</v>
       </c>
       <c r="G185" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="X185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
@@ -8113,10 +8000,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="C186" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="D186" s="1">
         <v>29962</v>
@@ -8128,10 +8015,10 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="X186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
@@ -8139,10 +8026,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C187" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D187" s="1">
         <v>33628</v>
@@ -8154,10 +8041,10 @@
         <v>23</v>
       </c>
       <c r="G187" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="X187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
@@ -8165,25 +8052,25 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C188" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="D188" s="1">
         <v>27379</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F188">
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="X188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
@@ -8191,25 +8078,25 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C189" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="D189" s="1">
         <v>28162</v>
       </c>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F189">
         <v>6</v>
       </c>
       <c r="G189" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="X189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.25">
@@ -8217,10 +8104,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C190" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="D190" s="1">
         <v>21994</v>
@@ -8232,10 +8119,10 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="X190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
@@ -8243,10 +8130,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="C191" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="D191" s="1">
         <v>22440</v>
@@ -8258,10 +8145,10 @@
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="X191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
@@ -8269,25 +8156,25 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C192" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="D192" s="1">
         <v>24283</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F192">
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="X192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
@@ -8295,10 +8182,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D193" s="1">
         <v>22800</v>
@@ -8310,10 +8197,10 @@
         <v>6</v>
       </c>
       <c r="G193" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="X193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
@@ -8321,10 +8208,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C194" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D194" s="1">
         <v>21042</v>
@@ -8336,10 +8223,10 @@
         <v>5</v>
       </c>
       <c r="G194" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="X194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
@@ -8347,10 +8234,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="D195" s="1">
         <v>23860</v>
@@ -8362,10 +8249,10 @@
         <v>6</v>
       </c>
       <c r="G195" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="X195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
@@ -8373,10 +8260,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="C196" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="D196" s="1">
         <v>34539</v>
@@ -8388,10 +8275,10 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="X196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
@@ -8399,25 +8286,25 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="C197" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="D197" s="1">
         <v>22278</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F197">
         <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="X197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
@@ -8425,10 +8312,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C198" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D198" s="1">
         <v>30030</v>
@@ -8440,10 +8327,10 @@
         <v>5</v>
       </c>
       <c r="G198" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="X198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
@@ -8451,10 +8338,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="C199" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="D199" s="1">
         <v>32795</v>
@@ -8466,10 +8353,10 @@
         <v>5</v>
       </c>
       <c r="G199" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="X199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
@@ -8477,25 +8364,25 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="C200" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="D200" s="1">
         <v>28303</v>
       </c>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F200">
         <v>5</v>
       </c>
       <c r="G200" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="X200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
@@ -8503,10 +8390,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C201" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D201" s="1">
         <v>30815</v>
@@ -8518,10 +8405,10 @@
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="X201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
@@ -8529,10 +8416,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C202" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D202" s="1">
         <v>29094</v>
@@ -8544,10 +8431,10 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="X202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
@@ -8555,10 +8442,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="C203" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="D203" s="1">
         <v>25397</v>
@@ -8570,10 +8457,10 @@
         <v>6</v>
       </c>
       <c r="G203" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="X203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
@@ -8581,25 +8468,25 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="C204" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="D204" s="1">
         <v>27699</v>
       </c>
       <c r="E204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F204">
         <v>4</v>
       </c>
       <c r="G204" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="X204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
@@ -8607,10 +8494,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="C205" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="D205" s="1">
         <v>22015</v>
@@ -8622,10 +8509,10 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="X205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
@@ -8633,25 +8520,25 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="C206" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="D206" s="1">
         <v>26846</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F206">
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="X206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
@@ -8659,10 +8546,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="C207" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="D207" s="1">
         <v>26403</v>
@@ -8674,10 +8561,10 @@
         <v>4</v>
       </c>
       <c r="G207" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="X207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.25">
@@ -8685,25 +8572,25 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="C208" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="D208" s="1">
         <v>21507</v>
       </c>
       <c r="E208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F208">
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="X208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.25">
@@ -8711,10 +8598,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C209" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D209" s="1">
         <v>26588</v>
@@ -8726,10 +8613,10 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="X209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.25">
@@ -8737,25 +8624,25 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C210" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D210" s="1">
         <v>19139</v>
       </c>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F210">
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="X210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
@@ -8763,10 +8650,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="C211" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="D211" s="1">
         <v>19224</v>
@@ -8778,10 +8665,10 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="X211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.25">
@@ -8789,10 +8676,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="C212" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="D212" s="1">
         <v>27399</v>
@@ -8804,10 +8691,10 @@
         <v>8</v>
       </c>
       <c r="G212" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="X212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.25">
@@ -8815,25 +8702,25 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C213" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D213" s="1">
         <v>34034</v>
       </c>
       <c r="E213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F213">
         <v>5</v>
       </c>
       <c r="G213" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="X213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.25">
@@ -8841,10 +8728,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C214" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D214" s="1">
         <v>26344</v>
@@ -8856,10 +8743,10 @@
         <v>5</v>
       </c>
       <c r="G214" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="X214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.25">
@@ -8867,10 +8754,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="C215" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="D215" s="1">
         <v>26225</v>
@@ -8882,10 +8769,10 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="X215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.25">
@@ -8893,10 +8780,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="C216" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="D216" s="1">
         <v>32842</v>
@@ -8908,10 +8795,10 @@
         <v>6</v>
       </c>
       <c r="G216" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="X216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.25">
@@ -8919,10 +8806,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="C217" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D217" s="1">
         <v>20803</v>
@@ -8934,10 +8821,10 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="X217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.25">
@@ -8945,25 +8832,25 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="C218" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="D218" s="1">
         <v>19689</v>
       </c>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F218">
         <v>23</v>
       </c>
       <c r="G218" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="X218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:24" x14ac:dyDescent="0.25">
@@ -8971,10 +8858,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="C219" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="D219" s="1">
         <v>35916</v>
@@ -8986,10 +8873,10 @@
         <v>5</v>
       </c>
       <c r="G219" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="X219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.25">
@@ -8997,25 +8884,25 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C220" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D220" s="1">
         <v>35911</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F220">
         <v>4</v>
       </c>
       <c r="G220" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="X220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.25">
@@ -9023,10 +8910,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="C221" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="D221" s="1">
         <v>25011</v>
@@ -9038,10 +8925,10 @@
         <v>6</v>
       </c>
       <c r="G221" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="X221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.25">
@@ -9049,25 +8936,25 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="C222" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="D222" s="1">
         <v>29037</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F222">
         <v>4</v>
       </c>
       <c r="G222" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="X222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.25">
@@ -9075,10 +8962,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C223" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="D223" s="1">
         <v>21492</v>
@@ -9090,10 +8977,10 @@
         <v>4</v>
       </c>
       <c r="G223" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="X223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.25">
@@ -9101,25 +8988,25 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="C224" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="D224" s="1">
         <v>34459</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="X224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.25">
@@ -9127,25 +9014,25 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C225" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D225" s="1">
         <v>26953</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F225">
         <v>8</v>
       </c>
       <c r="G225" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="X225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.25">
@@ -9153,10 +9040,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="C226" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="D226" s="1">
         <v>22355</v>
@@ -9168,10 +9055,10 @@
         <v>2</v>
       </c>
       <c r="G226" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="X226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.25">
@@ -9179,25 +9066,25 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="C227" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="D227" s="1">
         <v>28365</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F227">
         <v>6</v>
       </c>
       <c r="G227" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="X227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.25">
@@ -9205,10 +9092,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C228" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D228" s="1">
         <v>26305</v>
@@ -9220,10 +9107,10 @@
         <v>19</v>
       </c>
       <c r="G228" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="X228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.25">
@@ -9231,25 +9118,25 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="C229" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="D229" s="1">
         <v>19162</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F229">
         <v>5</v>
       </c>
       <c r="G229" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="X229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.25">
@@ -9257,10 +9144,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="C230" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="D230" s="1">
         <v>35834</v>
@@ -9272,10 +9159,10 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="X230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.25">
@@ -9283,10 +9170,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C231" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="D231" s="1">
         <v>28286</v>
@@ -9298,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="X231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.25">
@@ -9309,25 +9196,25 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C232" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="D232" s="1">
         <v>24263</v>
       </c>
       <c r="E232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F232">
         <v>3</v>
       </c>
       <c r="G232" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="X232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.25">
@@ -9335,25 +9222,25 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C233" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D233" s="1">
         <v>18654</v>
       </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F233">
         <v>5</v>
       </c>
       <c r="G233" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="X233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.25">
@@ -9361,10 +9248,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C234" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D234" s="1">
         <v>20375</v>
@@ -9376,10 +9263,10 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="X234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.25">
@@ -9387,25 +9274,25 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D235" s="1">
         <v>19766</v>
       </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F235">
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="X235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.25">
@@ -9413,25 +9300,25 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="C236" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D236" s="1">
         <v>35931</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F236">
         <v>3</v>
       </c>
       <c r="G236" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="X236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.25">
@@ -9439,25 +9326,25 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="C237" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="D237" s="1">
         <v>20905</v>
       </c>
       <c r="E237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F237">
         <v>4</v>
       </c>
       <c r="G237" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="X237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.25">
@@ -9465,25 +9352,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D238" s="1">
         <v>30895</v>
       </c>
       <c r="E238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F238">
         <v>8</v>
       </c>
       <c r="G238" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="X238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.25">
@@ -9491,10 +9378,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C239" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="D239" s="1">
         <v>27090</v>
@@ -9506,10 +9393,10 @@
         <v>5</v>
       </c>
       <c r="G239" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="X239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.25">
@@ -9517,25 +9404,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="C240" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="D240" s="1">
         <v>26670</v>
       </c>
       <c r="E240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F240">
         <v>3</v>
       </c>
       <c r="G240" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="X240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.25">
@@ -9543,10 +9430,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="C241" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="D241" s="1">
         <v>31966</v>
@@ -9558,10 +9445,10 @@
         <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="X241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.25">
@@ -9569,10 +9456,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C242" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D242" s="1">
         <v>22666</v>
@@ -9584,10 +9471,10 @@
         <v>6</v>
       </c>
       <c r="G242" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="X242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.25">
@@ -9595,10 +9482,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="C243" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="D243" s="1">
         <v>28834</v>
@@ -9610,10 +9497,10 @@
         <v>23</v>
       </c>
       <c r="G243" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="X243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.25">
@@ -9621,25 +9508,25 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="C244" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="D244" s="1">
         <v>32880</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F244">
         <v>23</v>
       </c>
       <c r="G244" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="X244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.25">
@@ -9647,25 +9534,25 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="C245" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="D245" s="1">
         <v>35207</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F245">
         <v>7</v>
       </c>
       <c r="G245" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="X245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.25">
@@ -9673,10 +9560,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="C246" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="D246" s="1">
         <v>35446</v>
@@ -9688,10 +9575,10 @@
         <v>5</v>
       </c>
       <c r="G246" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="X246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.25">
@@ -9699,10 +9586,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="C247" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="D247" s="1">
         <v>34986</v>
@@ -9714,10 +9601,10 @@
         <v>5</v>
       </c>
       <c r="G247" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="X247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.25">
@@ -9725,25 +9612,25 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C248" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D248" s="1">
         <v>28389</v>
       </c>
       <c r="E248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F248">
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="X248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.25">
@@ -9751,10 +9638,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C249" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D249" s="1">
         <v>29276</v>
@@ -9766,10 +9653,10 @@
         <v>6</v>
       </c>
       <c r="G249" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="X249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.25">
@@ -9777,10 +9664,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="C250" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="D250" s="1">
         <v>31482</v>
@@ -9792,10 +9679,10 @@
         <v>7</v>
       </c>
       <c r="G250" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="X250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.25">
@@ -9803,10 +9690,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="C251" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="D251" s="1">
         <v>29358</v>
@@ -9818,10 +9705,10 @@
         <v>6</v>
       </c>
       <c r="G251" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="X251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.25">
@@ -9829,305 +9716,29 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C252" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="D252" s="1">
         <v>33325</v>
       </c>
       <c r="E252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F252">
         <v>20</v>
       </c>
       <c r="G252" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="X252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87411F13-4A73-49E9-9FFB-E0F1B02F7613}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>772</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>770</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>773</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>774</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>775</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>776</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D9" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>779</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>780</v>
-      </c>
-      <c r="D11" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>781</v>
-      </c>
-      <c r="D12" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>782</v>
-      </c>
-      <c r="D13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>784</v>
-      </c>
-      <c r="D14" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>783</v>
-      </c>
-      <c r="D15" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>785</v>
-      </c>
-      <c r="D16" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>786</v>
-      </c>
-      <c r="D17" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>787</v>
-      </c>
-      <c r="D18" t="s">
-        <v>778</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F240">
-    <sortCondition ref="A1:A240"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>